--- a/StructureDefinition-chemotherapy.xlsx
+++ b/StructureDefinition-chemotherapy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$59</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="423">
   <si>
     <t>Property</t>
   </si>
@@ -860,8 +860,8 @@
     <t>Procedure.performed[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Age
-</t>
+    <t>dateTime
+PeriodstringAgeRange</t>
   </si>
   <si>
     <t>When the procedure was performed</t>
@@ -873,13 +873,6 @@
     <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -890,16 +883,6 @@
   </si>
   <si>
     <t>OBR-7</t>
-  </si>
-  <si>
-    <t>performedAge</t>
-  </si>
-  <si>
-    <t>&lt;valueAge xmlns="http://hl7.org/fhir"&gt;
-  &lt;value value="3"/&gt;
-  &lt;system value="http://unitsofmeasure.org"/&gt;
-  &lt;code value="months"/&gt;
-&lt;/valueAge&gt;</t>
   </si>
   <si>
     <t>Procedure.recorder</t>
@@ -1667,7 +1650,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM60"/>
+  <dimension ref="A1:AM59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1677,7 +1660,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.23046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -5236,14 +5219,16 @@
         <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AB32" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>273</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>267</v>
@@ -5261,25 +5246,23 @@
         <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>277</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>73</v>
       </c>
@@ -5300,17 +5283,15 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>73</v>
@@ -5320,7 +5301,7 @@
         <v>73</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>279</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>73</v>
@@ -5359,7 +5340,7 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5374,21 +5355,21 @@
         <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>274</v>
+        <v>73</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>277</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5411,13 +5392,13 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5468,7 +5449,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5486,10 +5467,10 @@
         <v>73</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>73</v>
@@ -5497,7 +5478,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5508,7 +5489,7 @@
         <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>73</v>
@@ -5520,13 +5501,13 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5577,13 +5558,13 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>73</v>
@@ -5592,13 +5573,13 @@
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>290</v>
+        <v>73</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>73</v>
@@ -5606,7 +5587,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5617,7 +5598,7 @@
         <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>73</v>
@@ -5626,16 +5607,16 @@
         <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>292</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>293</v>
+        <v>203</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>294</v>
+        <v>204</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5686,25 +5667,25 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>296</v>
+        <v>206</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>73</v>
@@ -5715,18 +5696,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -5738,15 +5719,17 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>73</v>
@@ -5795,19 +5778,19 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -5824,11 +5807,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>127</v>
+        <v>296</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5841,24 +5824,26 @@
         <v>73</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>129</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>73</v>
       </c>
@@ -5906,7 +5891,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5924,7 +5909,7 @@
         <v>73</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>73</v>
@@ -5935,30 +5920,30 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>301</v>
@@ -5966,11 +5951,9 @@
       <c r="L39" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>131</v>
-      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>137</v>
+        <v>303</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>73</v>
@@ -5995,13 +5978,13 @@
         <v>73</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>73</v>
+        <v>305</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>73</v>
@@ -6019,36 +6002,36 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>125</v>
+        <v>307</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>73</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6056,7 +6039,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>82</v>
@@ -6071,17 +6054,17 @@
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>186</v>
+        <v>310</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>73</v>
@@ -6106,34 +6089,34 @@
         <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>308</v>
+        <v>73</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="AF40" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>82</v>
@@ -6145,21 +6128,21 @@
         <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>73</v>
+        <v>316</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6167,7 +6150,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>82</v>
@@ -6179,20 +6162,20 @@
         <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>73</v>
@@ -6241,10 +6224,10 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
@@ -6256,21 +6239,21 @@
         <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>318</v>
+        <v>73</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>320</v>
+        <v>73</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6290,20 +6273,20 @@
         <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
@@ -6352,7 +6335,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6370,10 +6353,10 @@
         <v>73</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>73</v>
+        <v>330</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>73</v>
@@ -6381,7 +6364,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6392,7 +6375,7 @@
         <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -6404,18 +6387,18 @@
         <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>329</v>
+        <v>186</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>73</v>
       </c>
@@ -6439,13 +6422,13 @@
         <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>335</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>73</v>
@@ -6463,13 +6446,13 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
@@ -6478,13 +6461,13 @@
         <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>73</v>
@@ -6492,7 +6475,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6515,16 +6498,16 @@
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>186</v>
+        <v>341</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6550,31 +6533,31 @@
         <v>73</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>339</v>
+        <v>73</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
@@ -6589,13 +6572,13 @@
         <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>73</v>
@@ -6603,7 +6586,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6626,16 +6609,16 @@
         <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>345</v>
+        <v>186</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6661,13 +6644,13 @@
         <v>73</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>73</v>
+        <v>350</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>73</v>
+        <v>351</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>73</v>
@@ -6685,7 +6668,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6700,21 +6683,21 @@
         <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>349</v>
+        <v>73</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>343</v>
+        <v>73</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>73</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6725,7 +6708,7 @@
         <v>74</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>73</v>
@@ -6740,13 +6723,13 @@
         <v>186</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6775,34 +6758,34 @@
         <v>190</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>73</v>
@@ -6814,18 +6797,18 @@
         <v>73</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>357</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6836,7 +6819,7 @@
         <v>74</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>73</v>
@@ -6845,19 +6828,19 @@
         <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>186</v>
+        <v>362</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6883,13 +6866,13 @@
         <v>73</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>362</v>
+        <v>73</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>363</v>
+        <v>73</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>73</v>
@@ -6907,13 +6890,13 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>73</v>
@@ -6925,7 +6908,7 @@
         <v>73</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>73</v>
@@ -6936,7 +6919,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6959,16 +6942,16 @@
         <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>366</v>
+        <v>186</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6994,13 +6977,13 @@
         <v>73</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>73</v>
+        <v>371</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>73</v>
+        <v>372</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>73</v>
@@ -7018,7 +7001,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -7036,7 +7019,7 @@
         <v>73</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>73</v>
@@ -7047,7 +7030,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7070,18 +7053,18 @@
         <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>186</v>
+        <v>375</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>73</v>
       </c>
@@ -7105,13 +7088,13 @@
         <v>73</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>375</v>
+        <v>73</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>376</v>
+        <v>73</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>73</v>
@@ -7129,7 +7112,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7147,7 +7130,7 @@
         <v>73</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>73</v>
@@ -7158,7 +7141,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7181,7 +7164,7 @@
         <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>379</v>
+        <v>186</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>380</v>
@@ -7190,9 +7173,7 @@
         <v>381</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>382</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>73</v>
       </c>
@@ -7216,13 +7197,13 @@
         <v>73</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>73</v>
+        <v>382</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>73</v>
+        <v>383</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>73</v>
@@ -7240,7 +7221,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -7258,7 +7239,7 @@
         <v>73</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>73</v>
@@ -7269,7 +7250,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7292,13 +7273,13 @@
         <v>73</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>186</v>
+        <v>386</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7325,13 +7306,13 @@
         <v>73</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>386</v>
+        <v>73</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>387</v>
+        <v>73</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>73</v>
@@ -7349,7 +7330,7 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -7364,21 +7345,21 @@
         <v>94</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>73</v>
+        <v>389</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>73</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7401,13 +7382,13 @@
         <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>390</v>
+        <v>288</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7458,7 +7439,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7473,16 +7454,16 @@
         <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>393</v>
+        <v>73</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>395</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" hidden="true">
@@ -7498,7 +7479,7 @@
         <v>74</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -7510,13 +7491,13 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>292</v>
+        <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>397</v>
+        <v>203</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>398</v>
+        <v>204</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7567,25 +7548,25 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>396</v>
+        <v>205</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>399</v>
+        <v>206</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>73</v>
@@ -7596,18 +7577,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -7619,15 +7600,17 @@
         <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>73</v>
@@ -7676,19 +7659,19 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>73</v>
@@ -7705,11 +7688,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>127</v>
+        <v>296</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7722,24 +7705,26 @@
         <v>73</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>129</v>
+        <v>297</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>73</v>
       </c>
@@ -7787,7 +7772,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7805,7 +7790,7 @@
         <v>73</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>73</v>
@@ -7816,43 +7801,39 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>73</v>
       </c>
@@ -7876,13 +7857,13 @@
         <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>73</v>
+        <v>402</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>73</v>
+        <v>403</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
@@ -7900,25 +7881,25 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>303</v>
+        <v>399</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>125</v>
+        <v>404</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>73</v>
@@ -7929,7 +7910,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7937,7 +7918,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>82</v>
@@ -7952,13 +7933,13 @@
         <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>186</v>
+        <v>406</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7985,13 +7966,13 @@
         <v>73</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>406</v>
+        <v>73</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>407</v>
+        <v>73</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>73</v>
@@ -8009,10 +7990,10 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
@@ -8027,7 +8008,7 @@
         <v>73</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>73</v>
@@ -8038,7 +8019,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8046,10 +8027,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
@@ -8061,16 +8042,20 @@
         <v>73</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
       </c>
@@ -8118,13 +8103,13 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>73</v>
@@ -8136,7 +8121,7 @@
         <v>73</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>73</v>
@@ -8147,7 +8132,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8170,20 +8155,18 @@
         <v>73</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>415</v>
+        <v>186</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>73</v>
       </c>
@@ -8207,13 +8190,13 @@
         <v>73</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>73</v>
+        <v>420</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>73</v>
+        <v>421</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>73</v>
@@ -8231,7 +8214,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8249,128 +8232,17 @@
         <v>73</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM60" t="s" s="2">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM60">
+  <autoFilter ref="A1:AM59">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8380,7 +8252,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI59">
+  <conditionalFormatting sqref="A2:AI58">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
